--- a/01.VietSoftHRM/VietSoftHRM/Template/TemplateTangLaoDong.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/Template/TemplateTangLaoDong.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRM\05.Vs.Report\VS.Report\bin\Debug\TempleteExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96D473E-8CCA-4D17-BA1C-F3BCEAE96B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Truong_hop_Tang" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="TangLaoDong">Truong_hop_Tang!$A$5:$BE$5</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -52,6 +46,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Mức đóng cũ
 </t>
@@ -62,6 +57,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>(Chỉ nhập trường hợp điều chỉnh mức đóng (DC))</t>
     </r>
@@ -82,6 +78,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Tình trạng sổ BHXH (chỉ nhập trường hợp</t>
     </r>
@@ -91,6 +88,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> tăng mới (TM)</t>
     </r>
@@ -100,6 +98,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> hoặc </t>
     </r>
@@ -109,6 +108,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>tăng mới từ nơi khác chuyển đến (TD)</t>
     </r>
@@ -118,6 +118,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>), nhập một trong các số sau:
 1: Chưa có sổ BHXH
@@ -182,6 +183,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Hiệu lực của HĐ/QĐ đến ngày (chỉ nhập trường hợp: </t>
     </r>
@@ -191,6 +193,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> Bổ sung tăng nguyên lương (AD), Nghỉ đi làm lại (ON)</t>
     </r>
@@ -200,6 +203,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>)
 &lt;dd/mm/yyyy&gt;</t>
@@ -212,6 +216,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Nhập ký hiệu loại Tăng theo chữ in hoa dưới đây </t>
     </r>
@@ -222,6 +227,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>(VD: TM cho trường hợp Tăng mới)</t>
     </r>
@@ -231,6 +237,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>:
 TM: Tăng mới
@@ -292,6 +299,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Xã/phường
 (Xem sheet MA_XA cột Mã Xã )
@@ -303,6 +311,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Ví dụ: nhập 10: Xã Tả Lủng</t>
     </r>
@@ -314,6 +323,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Quận/huyện 
 (Xem sheet MA_HUYEN cột Mã Huyện)
@@ -325,6 +335,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Ví dụ: nhập 01: Quận Ba Đình</t>
     </r>
@@ -343,6 +354,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Xã/phường
 (Xem sheet MA_XA cột Mã Xã)
@@ -354,6 +366,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Ví dụ: nhập 10: Xã Tả Lủng </t>
     </r>
@@ -365,6 +378,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Quận/huyện 
 (Xem sheet MA_HUYEN)
@@ -376,6 +390,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Ví dụ: nhập 01: Quận Ba Đình</t>
     </r>
@@ -583,7 +598,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,12 +614,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -609,17 +629,20 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -627,12 +650,14 @@
       <sz val="10"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -771,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -806,6 +831,34 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,6 +883,15 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,13 +907,18 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +1047,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,26 +1080,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1065,23 +1115,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,42 +1290,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="14" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="6.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="18" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="6.85546875" style="18" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="18" customWidth="1"/>
     <col min="21" max="21" width="6.42578125" style="4" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" style="4" customWidth="1"/>
     <col min="23" max="23" width="15" style="4" customWidth="1"/>
     <col min="24" max="24" width="26.28515625" style="7" customWidth="1"/>
     <col min="25" max="25" width="11.42578125" style="2"/>
     <col min="26" max="26" width="11.28515625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="14" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="21" customWidth="1"/>
     <col min="29" max="29" width="19.85546875" style="7" customWidth="1"/>
     <col min="30" max="30" width="18.140625" style="7" customWidth="1"/>
     <col min="31" max="31" width="12.28515625" style="8" customWidth="1"/>
@@ -1301,7 +1335,7 @@
     <col min="34" max="34" width="12.140625" style="2" customWidth="1"/>
     <col min="35" max="35" width="7.85546875" style="4" customWidth="1"/>
     <col min="36" max="36" width="12.42578125" style="4" customWidth="1"/>
-    <col min="37" max="37" width="12.7109375" style="4" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" style="14" customWidth="1"/>
     <col min="38" max="38" width="10.28515625" style="4" customWidth="1"/>
     <col min="39" max="39" width="29.28515625" style="2" customWidth="1"/>
     <col min="40" max="40" width="29.140625" style="2" customWidth="1"/>
@@ -1321,382 +1355,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="26" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
     </row>
     <row r="2" spans="1:57" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="12" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="17" t="s">
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12" t="s">
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="13" t="s">
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13" t="s">
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13" t="s">
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="12" t="s">
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AY2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="AZ2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="BB2" s="14" t="s">
+      <c r="BB2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:57" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="20" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="20" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="20" t="s">
+      <c r="O3" s="34"/>
+      <c r="P3" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="12" t="s">
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12" t="s">
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AJ3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AK3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AL3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AM3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AN3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AO3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AP3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AS3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AT3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AU3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AV3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AW3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="12"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="24"/>
     </row>
     <row r="4" spans="1:57" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="15" t="s">
         <v>54</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="12"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="24"/>
     </row>
     <row r="5" spans="1:57" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1705,7 +1739,7 @@
       <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1714,49 +1748,49 @@
       <c r="E5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="16" t="s">
         <v>75</v>
       </c>
       <c r="U5" t="s">
@@ -1777,10 +1811,10 @@
       <c r="Z5" t="s">
         <v>81</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="20" t="s">
         <v>83</v>
       </c>
       <c r="AC5" t="s">
@@ -1807,7 +1841,7 @@
       <c r="AJ5" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="19" t="s">
         <v>92</v>
       </c>
       <c r="AL5" t="s">
@@ -1846,7 +1880,7 @@
       <c r="AW5" t="s">
         <v>104</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AX5" s="12" t="s">
         <v>105</v>
       </c>
       <c r="AY5" t="s">
@@ -1872,43 +1906,43 @@
       </c>
     </row>
     <row r="6" spans="1:57" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="str">
+      <c r="B6" s="12" t="str">
         <f>CONCATENATE("")</f>
         <v/>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="F6" s="17"/>
+      <c r="N6" s="17"/>
       <c r="AE6" s="2"/>
     </row>
     <row r="8" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE8" s="2"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
+      <c r="AK8" s="22"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="10"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AI9" s="9"/>
       <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
+      <c r="AK9" s="23"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="10"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AI10" s="9"/>
       <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
+      <c r="AK10" s="23"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="10"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
+      <c r="AK11" s="22"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="10"/>
     </row>
